--- a/medicine/Handicap/La_Rébellion/La_Rébellion.xlsx
+++ b/medicine/Handicap/La_Rébellion/La_Rébellion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_R%C3%A9bellion</t>
+          <t>La_Rébellion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rébellion (Die Rebellion) est un téléfilm autrichien réalisé par Michael Haneke, sorti en 1983.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_R%C3%A9bellion</t>
+          <t>La_Rébellion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Pum a perdu une jambe lors de la Première Guerre mondiale. Revenu à la vie civile, il reçoit une licence pour jouer de l'orgue de Barbarie ; mais il se dispute avec un homme puis frappe un policier. Il est alors envoyé en prison et perd sa licence. À sa sortie, il devient gardien des toilettes d'un café.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_R%C3%A9bellion</t>
+          <t>La_Rébellion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Rébellion
 Titre original : Die Rebellion
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_R%C3%A9bellion</t>
+          <t>La_Rébellion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Branko Samarovski : Andreas Pum
 Judit Pogány : Kathi Blumich
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_R%C3%A9bellion</t>
+          <t>La_Rébellion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,12 +647,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film reçoit plusieurs prix :
-Festival du téléfilm de Baden-Baden : prix Teleplay[1]
-Austrian People's Education TV Award du meilleur téléfilm[1]
-Goldenen Kader du meilleur acteur pour Branko Samarovski[2]</t>
+Festival du téléfilm de Baden-Baden : prix Teleplay
+Austrian People's Education TV Award du meilleur téléfilm
+Goldenen Kader du meilleur acteur pour Branko Samarovski</t>
         </is>
       </c>
     </row>
